--- a/GES.xlsx
+++ b/GES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B09858-9B92-4832-BBF0-D73311802E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B4CDC0-3E80-4BCF-8E38-48A6F623ED7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="780" windowWidth="38175" windowHeight="15240" xr2:uid="{E7264A03-BFC9-4B5E-8E86-B8873F1B89EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{E7264A03-BFC9-4B5E-8E86-B8873F1B89EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Guess</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>17-03-25 WHP- Global offer to acquire the shares outstanding for 13$ per share</t>
+  </si>
+  <si>
+    <t>https://investors.guess.com/news-releases/news-release-details/guess-co-founders-maurice-and-paul-marciano-and-ceo-carlos</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9F8111-8103-4A03-9BC4-D92B94D29D9C}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -659,6 +662,11 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/GES.xlsx
+++ b/GES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B4CDC0-3E80-4BCF-8E38-48A6F623ED7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BACD56-E225-449D-A03D-CF332992F33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{E7264A03-BFC9-4B5E-8E86-B8873F1B89EB}"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="38175" windowHeight="15240" xr2:uid="{E7264A03-BFC9-4B5E-8E86-B8873F1B89EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,12 +178,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -194,12 +192,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,17 +234,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -572,32 +584,33 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>12.38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="3">
@@ -607,11 +620,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="3">
@@ -619,11 +632,11 @@
         <v>637.03569158000005</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="3">
@@ -633,8 +646,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="3">
@@ -645,8 +658,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="3">
@@ -654,18 +667,18 @@
         <v>1117.88369158</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -682,21 +695,22 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -722,8 +736,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="3"/>
@@ -799,8 +813,8 @@
       <c r="BQ3" s="3"/>
       <c r="BR3" s="3"/>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="3"/>
@@ -876,39 +890,39 @@
       <c r="BQ4" s="3"/>
       <c r="BR4" s="3"/>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <f t="shared" ref="C5:H5" si="0">+C3+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <f t="shared" si="0"/>
         <v>651.16999999999996</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <f>+I3+I4</f>
         <v>738.51799999999992</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <f t="shared" ref="J5" si="1">+J3+J4</f>
         <v>0</v>
       </c>
@@ -973,8 +987,8 @@
       <c r="BQ5" s="3"/>
       <c r="BR5" s="3"/>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="3"/>
@@ -1050,8 +1064,8 @@
       <c r="BQ6" s="3"/>
       <c r="BR6" s="3"/>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3">
@@ -1147,8 +1161,8 @@
       <c r="BQ7" s="3"/>
       <c r="BR7" s="3"/>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3"/>
@@ -1224,8 +1238,8 @@
       <c r="BQ8" s="3"/>
       <c r="BR8" s="3"/>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="3"/>
@@ -1301,8 +1315,8 @@
       <c r="BQ9" s="3"/>
       <c r="BR9" s="3"/>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="3"/>
@@ -1379,8 +1393,8 @@
       <c r="BQ10" s="3"/>
       <c r="BR10" s="3"/>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="3">
@@ -1476,8 +1490,8 @@
       <c r="BQ11" s="3"/>
       <c r="BR11" s="3"/>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="3"/>
@@ -1553,8 +1567,8 @@
       <c r="BQ12" s="3"/>
       <c r="BR12" s="3"/>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="3"/>
@@ -1630,8 +1644,8 @@
       <c r="BQ13" s="3"/>
       <c r="BR13" s="3"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="3"/>
@@ -1707,8 +1721,8 @@
       <c r="BQ14" s="3"/>
       <c r="BR14" s="3"/>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="3"/>
@@ -1784,8 +1798,8 @@
       <c r="BQ15" s="3"/>
       <c r="BR15" s="3"/>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="3">
@@ -1881,8 +1895,8 @@
       <c r="BQ16" s="3"/>
       <c r="BR16" s="3"/>
     </row>
-    <row r="17" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="3"/>
@@ -1958,8 +1972,8 @@
       <c r="BQ17" s="3"/>
       <c r="BR17" s="3"/>
     </row>
-    <row r="18" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="3">
@@ -2055,8 +2069,8 @@
       <c r="BQ18" s="3"/>
       <c r="BR18" s="3"/>
     </row>
-    <row r="19" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="3"/>
@@ -2132,8 +2146,8 @@
       <c r="BQ19" s="3"/>
       <c r="BR19" s="3"/>
     </row>
-    <row r="20" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="3">
@@ -2229,7 +2243,7 @@
       <c r="BQ20" s="3"/>
       <c r="BR20" s="3"/>
     </row>
-    <row r="21" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2299,39 +2313,39 @@
       <c r="BQ21" s="3"/>
       <c r="BR21" s="3"/>
     </row>
-    <row r="22" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="2" t="e">
+      <c r="C22" s="8" t="e">
         <f t="shared" ref="C22:H22" si="12">+C20/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D22" s="2" t="e">
+      <c r="D22" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="8">
         <f t="shared" si="12"/>
         <v>1.0499321420493095</v>
       </c>
-      <c r="F22" s="2" t="e">
+      <c r="F22" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="2" t="e">
+      <c r="G22" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="2" t="e">
+      <c r="H22" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="8">
         <f>+I20/I23</f>
         <v>-0.46054962793811011</v>
       </c>
-      <c r="J22" s="2" t="e">
+      <c r="J22" s="8" t="e">
         <f t="shared" ref="J22" si="13">+J20/J23</f>
         <v>#DIV/0!</v>
       </c>
@@ -2396,8 +2410,8 @@
       <c r="BQ22" s="3"/>
       <c r="BR22" s="3"/>
     </row>
-    <row r="23" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="3"/>
@@ -2473,7 +2487,7 @@
       <c r="BQ23" s="3"/>
       <c r="BR23" s="3"/>
     </row>
-    <row r="24" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2543,7 +2557,7 @@
       <c r="BQ24" s="3"/>
       <c r="BR24" s="3"/>
     </row>
-    <row r="25" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2613,7 +2627,7 @@
       <c r="BQ25" s="3"/>
       <c r="BR25" s="3"/>
     </row>
-    <row r="26" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2683,7 +2697,7 @@
       <c r="BQ26" s="3"/>
       <c r="BR26" s="3"/>
     </row>
-    <row r="27" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2753,7 +2767,7 @@
       <c r="BQ27" s="3"/>
       <c r="BR27" s="3"/>
     </row>
-    <row r="28" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2823,7 +2837,7 @@
       <c r="BQ28" s="3"/>
       <c r="BR28" s="3"/>
     </row>
-    <row r="29" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2893,7 +2907,7 @@
       <c r="BQ29" s="3"/>
       <c r="BR29" s="3"/>
     </row>
-    <row r="30" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2963,7 +2977,7 @@
       <c r="BQ30" s="3"/>
       <c r="BR30" s="3"/>
     </row>
-    <row r="31" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -3033,7 +3047,7 @@
       <c r="BQ31" s="3"/>
       <c r="BR31" s="3"/>
     </row>
-    <row r="32" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -3103,7 +3117,7 @@
       <c r="BQ32" s="3"/>
       <c r="BR32" s="3"/>
     </row>
-    <row r="33" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -3173,7 +3187,7 @@
       <c r="BQ33" s="3"/>
       <c r="BR33" s="3"/>
     </row>
-    <row r="34" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -3243,7 +3257,7 @@
       <c r="BQ34" s="3"/>
       <c r="BR34" s="3"/>
     </row>
-    <row r="35" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -3313,7 +3327,7 @@
       <c r="BQ35" s="3"/>
       <c r="BR35" s="3"/>
     </row>
-    <row r="36" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -3383,7 +3397,7 @@
       <c r="BQ36" s="3"/>
       <c r="BR36" s="3"/>
     </row>
-    <row r="37" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -3453,7 +3467,7 @@
       <c r="BQ37" s="3"/>
       <c r="BR37" s="3"/>
     </row>
-    <row r="38" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -3523,7 +3537,7 @@
       <c r="BQ38" s="3"/>
       <c r="BR38" s="3"/>
     </row>
-    <row r="39" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -3593,7 +3607,7 @@
       <c r="BQ39" s="3"/>
       <c r="BR39" s="3"/>
     </row>
-    <row r="40" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3663,7 +3677,7 @@
       <c r="BQ40" s="3"/>
       <c r="BR40" s="3"/>
     </row>
-    <row r="41" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3733,7 +3747,7 @@
       <c r="BQ41" s="3"/>
       <c r="BR41" s="3"/>
     </row>
-    <row r="42" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3803,7 +3817,7 @@
       <c r="BQ42" s="3"/>
       <c r="BR42" s="3"/>
     </row>
-    <row r="43" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3873,7 +3887,7 @@
       <c r="BQ43" s="3"/>
       <c r="BR43" s="3"/>
     </row>
-    <row r="44" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3943,7 +3957,7 @@
       <c r="BQ44" s="3"/>
       <c r="BR44" s="3"/>
     </row>
-    <row r="45" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4013,7 +4027,7 @@
       <c r="BQ45" s="3"/>
       <c r="BR45" s="3"/>
     </row>
-    <row r="46" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -4083,7 +4097,7 @@
       <c r="BQ46" s="3"/>
       <c r="BR46" s="3"/>
     </row>
-    <row r="47" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -4153,7 +4167,7 @@
       <c r="BQ47" s="3"/>
       <c r="BR47" s="3"/>
     </row>
-    <row r="48" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4223,7 +4237,7 @@
       <c r="BQ48" s="3"/>
       <c r="BR48" s="3"/>
     </row>
-    <row r="49" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4293,7 +4307,7 @@
       <c r="BQ49" s="3"/>
       <c r="BR49" s="3"/>
     </row>
-    <row r="50" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4363,7 +4377,7 @@
       <c r="BQ50" s="3"/>
       <c r="BR50" s="3"/>
     </row>
-    <row r="51" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4433,7 +4447,7 @@
       <c r="BQ51" s="3"/>
       <c r="BR51" s="3"/>
     </row>
-    <row r="52" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4503,7 +4517,7 @@
       <c r="BQ52" s="3"/>
       <c r="BR52" s="3"/>
     </row>
-    <row r="53" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4573,7 +4587,7 @@
       <c r="BQ53" s="3"/>
       <c r="BR53" s="3"/>
     </row>
-    <row r="54" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4643,7 +4657,7 @@
       <c r="BQ54" s="3"/>
       <c r="BR54" s="3"/>
     </row>
-    <row r="55" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4713,7 +4727,7 @@
       <c r="BQ55" s="3"/>
       <c r="BR55" s="3"/>
     </row>
-    <row r="56" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4783,7 +4797,7 @@
       <c r="BQ56" s="3"/>
       <c r="BR56" s="3"/>
     </row>
-    <row r="57" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4853,7 +4867,7 @@
       <c r="BQ57" s="3"/>
       <c r="BR57" s="3"/>
     </row>
-    <row r="58" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4923,7 +4937,7 @@
       <c r="BQ58" s="3"/>
       <c r="BR58" s="3"/>
     </row>
-    <row r="59" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4993,7 +5007,7 @@
       <c r="BQ59" s="3"/>
       <c r="BR59" s="3"/>
     </row>
-    <row r="60" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -5063,7 +5077,7 @@
       <c r="BQ60" s="3"/>
       <c r="BR60" s="3"/>
     </row>
-    <row r="61" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -5133,7 +5147,7 @@
       <c r="BQ61" s="3"/>
       <c r="BR61" s="3"/>
     </row>
-    <row r="62" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -5203,7 +5217,7 @@
       <c r="BQ62" s="3"/>
       <c r="BR62" s="3"/>
     </row>
-    <row r="63" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -5273,7 +5287,7 @@
       <c r="BQ63" s="3"/>
       <c r="BR63" s="3"/>
     </row>
-    <row r="64" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -5343,7 +5357,7 @@
       <c r="BQ64" s="3"/>
       <c r="BR64" s="3"/>
     </row>
-    <row r="65" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5413,7 +5427,7 @@
       <c r="BQ65" s="3"/>
       <c r="BR65" s="3"/>
     </row>
-    <row r="66" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -5483,7 +5497,7 @@
       <c r="BQ66" s="3"/>
       <c r="BR66" s="3"/>
     </row>
-    <row r="67" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -5553,7 +5567,7 @@
       <c r="BQ67" s="3"/>
       <c r="BR67" s="3"/>
     </row>
-    <row r="68" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -5623,7 +5637,7 @@
       <c r="BQ68" s="3"/>
       <c r="BR68" s="3"/>
     </row>
-    <row r="69" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -5693,7 +5707,7 @@
       <c r="BQ69" s="3"/>
       <c r="BR69" s="3"/>
     </row>
-    <row r="70" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -5763,7 +5777,7 @@
       <c r="BQ70" s="3"/>
       <c r="BR70" s="3"/>
     </row>
-    <row r="71" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -5833,7 +5847,7 @@
       <c r="BQ71" s="3"/>
       <c r="BR71" s="3"/>
     </row>
-    <row r="72" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5903,7 +5917,7 @@
       <c r="BQ72" s="3"/>
       <c r="BR72" s="3"/>
     </row>
-    <row r="73" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5973,7 +5987,7 @@
       <c r="BQ73" s="3"/>
       <c r="BR73" s="3"/>
     </row>
-    <row r="74" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -6043,7 +6057,7 @@
       <c r="BQ74" s="3"/>
       <c r="BR74" s="3"/>
     </row>
-    <row r="75" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -6113,7 +6127,7 @@
       <c r="BQ75" s="3"/>
       <c r="BR75" s="3"/>
     </row>
-    <row r="76" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -6183,7 +6197,7 @@
       <c r="BQ76" s="3"/>
       <c r="BR76" s="3"/>
     </row>
-    <row r="77" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -6253,7 +6267,7 @@
       <c r="BQ77" s="3"/>
       <c r="BR77" s="3"/>
     </row>
-    <row r="78" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -6323,7 +6337,7 @@
       <c r="BQ78" s="3"/>
       <c r="BR78" s="3"/>
     </row>
-    <row r="79" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -6393,7 +6407,7 @@
       <c r="BQ79" s="3"/>
       <c r="BR79" s="3"/>
     </row>
-    <row r="80" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -6463,7 +6477,7 @@
       <c r="BQ80" s="3"/>
       <c r="BR80" s="3"/>
     </row>
-    <row r="81" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -6533,7 +6547,7 @@
       <c r="BQ81" s="3"/>
       <c r="BR81" s="3"/>
     </row>
-    <row r="82" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -6603,7 +6617,7 @@
       <c r="BQ82" s="3"/>
       <c r="BR82" s="3"/>
     </row>
-    <row r="83" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -6673,7 +6687,7 @@
       <c r="BQ83" s="3"/>
       <c r="BR83" s="3"/>
     </row>
-    <row r="84" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -6743,7 +6757,7 @@
       <c r="BQ84" s="3"/>
       <c r="BR84" s="3"/>
     </row>
-    <row r="85" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -6813,7 +6827,7 @@
       <c r="BQ85" s="3"/>
       <c r="BR85" s="3"/>
     </row>
-    <row r="86" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -6883,7 +6897,7 @@
       <c r="BQ86" s="3"/>
       <c r="BR86" s="3"/>
     </row>
-    <row r="87" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -6953,7 +6967,7 @@
       <c r="BQ87" s="3"/>
       <c r="BR87" s="3"/>
     </row>
-    <row r="88" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -7023,7 +7037,7 @@
       <c r="BQ88" s="3"/>
       <c r="BR88" s="3"/>
     </row>
-    <row r="89" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -7093,7 +7107,7 @@
       <c r="BQ89" s="3"/>
       <c r="BR89" s="3"/>
     </row>
-    <row r="90" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -7163,7 +7177,7 @@
       <c r="BQ90" s="3"/>
       <c r="BR90" s="3"/>
     </row>
-    <row r="91" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -7233,7 +7247,7 @@
       <c r="BQ91" s="3"/>
       <c r="BR91" s="3"/>
     </row>
-    <row r="92" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -7303,7 +7317,7 @@
       <c r="BQ92" s="3"/>
       <c r="BR92" s="3"/>
     </row>
-    <row r="93" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -7373,7 +7387,7 @@
       <c r="BQ93" s="3"/>
       <c r="BR93" s="3"/>
     </row>
-    <row r="94" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -7443,7 +7457,7 @@
       <c r="BQ94" s="3"/>
       <c r="BR94" s="3"/>
     </row>
-    <row r="95" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -7513,7 +7527,7 @@
       <c r="BQ95" s="3"/>
       <c r="BR95" s="3"/>
     </row>
-    <row r="96" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -7583,7 +7597,7 @@
       <c r="BQ96" s="3"/>
       <c r="BR96" s="3"/>
     </row>
-    <row r="97" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -7653,7 +7667,7 @@
       <c r="BQ97" s="3"/>
       <c r="BR97" s="3"/>
     </row>
-    <row r="98" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -7723,7 +7737,7 @@
       <c r="BQ98" s="3"/>
       <c r="BR98" s="3"/>
     </row>
-    <row r="99" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -7793,7 +7807,7 @@
       <c r="BQ99" s="3"/>
       <c r="BR99" s="3"/>
     </row>
-    <row r="100" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -7863,7 +7877,7 @@
       <c r="BQ100" s="3"/>
       <c r="BR100" s="3"/>
     </row>
-    <row r="101" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -7933,7 +7947,7 @@
       <c r="BQ101" s="3"/>
       <c r="BR101" s="3"/>
     </row>
-    <row r="102" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -8003,7 +8017,7 @@
       <c r="BQ102" s="3"/>
       <c r="BR102" s="3"/>
     </row>
-    <row r="103" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -8073,7 +8087,7 @@
       <c r="BQ103" s="3"/>
       <c r="BR103" s="3"/>
     </row>
-    <row r="104" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -8143,7 +8157,7 @@
       <c r="BQ104" s="3"/>
       <c r="BR104" s="3"/>
     </row>
-    <row r="105" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -8213,7 +8227,7 @@
       <c r="BQ105" s="3"/>
       <c r="BR105" s="3"/>
     </row>
-    <row r="106" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -8283,7 +8297,7 @@
       <c r="BQ106" s="3"/>
       <c r="BR106" s="3"/>
     </row>
-    <row r="107" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -8353,7 +8367,7 @@
       <c r="BQ107" s="3"/>
       <c r="BR107" s="3"/>
     </row>
-    <row r="108" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -8423,7 +8437,7 @@
       <c r="BQ108" s="3"/>
       <c r="BR108" s="3"/>
     </row>
-    <row r="109" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -8493,7 +8507,7 @@
       <c r="BQ109" s="3"/>
       <c r="BR109" s="3"/>
     </row>
-    <row r="110" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -8563,7 +8577,7 @@
       <c r="BQ110" s="3"/>
       <c r="BR110" s="3"/>
     </row>
-    <row r="111" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -8633,7 +8647,7 @@
       <c r="BQ111" s="3"/>
       <c r="BR111" s="3"/>
     </row>
-    <row r="112" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -8703,7 +8717,7 @@
       <c r="BQ112" s="3"/>
       <c r="BR112" s="3"/>
     </row>
-    <row r="113" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -8773,7 +8787,7 @@
       <c r="BQ113" s="3"/>
       <c r="BR113" s="3"/>
     </row>
-    <row r="114" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -8843,7 +8857,7 @@
       <c r="BQ114" s="3"/>
       <c r="BR114" s="3"/>
     </row>
-    <row r="115" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -8913,7 +8927,7 @@
       <c r="BQ115" s="3"/>
       <c r="BR115" s="3"/>
     </row>
-    <row r="116" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -8983,7 +8997,7 @@
       <c r="BQ116" s="3"/>
       <c r="BR116" s="3"/>
     </row>
-    <row r="117" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -9053,7 +9067,7 @@
       <c r="BQ117" s="3"/>
       <c r="BR117" s="3"/>
     </row>
-    <row r="118" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -9123,7 +9137,7 @@
       <c r="BQ118" s="3"/>
       <c r="BR118" s="3"/>
     </row>
-    <row r="119" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -9193,7 +9207,7 @@
       <c r="BQ119" s="3"/>
       <c r="BR119" s="3"/>
     </row>
-    <row r="120" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -9263,7 +9277,7 @@
       <c r="BQ120" s="3"/>
       <c r="BR120" s="3"/>
     </row>
-    <row r="121" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -9333,7 +9347,7 @@
       <c r="BQ121" s="3"/>
       <c r="BR121" s="3"/>
     </row>
-    <row r="122" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -9403,7 +9417,7 @@
       <c r="BQ122" s="3"/>
       <c r="BR122" s="3"/>
     </row>
-    <row r="123" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -9473,7 +9487,7 @@
       <c r="BQ123" s="3"/>
       <c r="BR123" s="3"/>
     </row>
-    <row r="124" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -9543,7 +9557,7 @@
       <c r="BQ124" s="3"/>
       <c r="BR124" s="3"/>
     </row>
-    <row r="125" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -9613,7 +9627,7 @@
       <c r="BQ125" s="3"/>
       <c r="BR125" s="3"/>
     </row>
-    <row r="126" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -9683,7 +9697,7 @@
       <c r="BQ126" s="3"/>
       <c r="BR126" s="3"/>
     </row>
-    <row r="127" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -9753,7 +9767,7 @@
       <c r="BQ127" s="3"/>
       <c r="BR127" s="3"/>
     </row>
-    <row r="128" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -9823,7 +9837,7 @@
       <c r="BQ128" s="3"/>
       <c r="BR128" s="3"/>
     </row>
-    <row r="129" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -9893,7 +9907,7 @@
       <c r="BQ129" s="3"/>
       <c r="BR129" s="3"/>
     </row>
-    <row r="130" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -9963,7 +9977,7 @@
       <c r="BQ130" s="3"/>
       <c r="BR130" s="3"/>
     </row>
-    <row r="131" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -10033,7 +10047,7 @@
       <c r="BQ131" s="3"/>
       <c r="BR131" s="3"/>
     </row>
-    <row r="132" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -10103,7 +10117,7 @@
       <c r="BQ132" s="3"/>
       <c r="BR132" s="3"/>
     </row>
-    <row r="133" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -10173,7 +10187,7 @@
       <c r="BQ133" s="3"/>
       <c r="BR133" s="3"/>
     </row>
-    <row r="134" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -10243,7 +10257,7 @@
       <c r="BQ134" s="3"/>
       <c r="BR134" s="3"/>
     </row>
-    <row r="135" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -10313,7 +10327,7 @@
       <c r="BQ135" s="3"/>
       <c r="BR135" s="3"/>
     </row>
-    <row r="136" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -10383,7 +10397,7 @@
       <c r="BQ136" s="3"/>
       <c r="BR136" s="3"/>
     </row>
-    <row r="137" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -10453,7 +10467,7 @@
       <c r="BQ137" s="3"/>
       <c r="BR137" s="3"/>
     </row>
-    <row r="138" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -10523,7 +10537,7 @@
       <c r="BQ138" s="3"/>
       <c r="BR138" s="3"/>
     </row>
-    <row r="139" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -10593,7 +10607,7 @@
       <c r="BQ139" s="3"/>
       <c r="BR139" s="3"/>
     </row>
-    <row r="140" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -10663,7 +10677,7 @@
       <c r="BQ140" s="3"/>
       <c r="BR140" s="3"/>
     </row>
-    <row r="141" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -10733,7 +10747,7 @@
       <c r="BQ141" s="3"/>
       <c r="BR141" s="3"/>
     </row>
-    <row r="142" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -10803,7 +10817,7 @@
       <c r="BQ142" s="3"/>
       <c r="BR142" s="3"/>
     </row>
-    <row r="143" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -10873,7 +10887,7 @@
       <c r="BQ143" s="3"/>
       <c r="BR143" s="3"/>
     </row>
-    <row r="144" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -10943,7 +10957,7 @@
       <c r="BQ144" s="3"/>
       <c r="BR144" s="3"/>
     </row>
-    <row r="145" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -11013,7 +11027,7 @@
       <c r="BQ145" s="3"/>
       <c r="BR145" s="3"/>
     </row>
-    <row r="146" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -11083,7 +11097,7 @@
       <c r="BQ146" s="3"/>
       <c r="BR146" s="3"/>
     </row>
-    <row r="147" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -11153,7 +11167,7 @@
       <c r="BQ147" s="3"/>
       <c r="BR147" s="3"/>
     </row>
-    <row r="148" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -11223,7 +11237,7 @@
       <c r="BQ148" s="3"/>
       <c r="BR148" s="3"/>
     </row>
-    <row r="149" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -11293,7 +11307,7 @@
       <c r="BQ149" s="3"/>
       <c r="BR149" s="3"/>
     </row>
-    <row r="150" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -11363,7 +11377,7 @@
       <c r="BQ150" s="3"/>
       <c r="BR150" s="3"/>
     </row>
-    <row r="151" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -11433,7 +11447,7 @@
       <c r="BQ151" s="3"/>
       <c r="BR151" s="3"/>
     </row>
-    <row r="152" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -11503,7 +11517,7 @@
       <c r="BQ152" s="3"/>
       <c r="BR152" s="3"/>
     </row>
-    <row r="153" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -11573,7 +11587,7 @@
       <c r="BQ153" s="3"/>
       <c r="BR153" s="3"/>
     </row>
-    <row r="154" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -11643,7 +11657,7 @@
       <c r="BQ154" s="3"/>
       <c r="BR154" s="3"/>
     </row>
-    <row r="155" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -11713,7 +11727,7 @@
       <c r="BQ155" s="3"/>
       <c r="BR155" s="3"/>
     </row>
-    <row r="156" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -11783,7 +11797,7 @@
       <c r="BQ156" s="3"/>
       <c r="BR156" s="3"/>
     </row>
-    <row r="157" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -11853,7 +11867,7 @@
       <c r="BQ157" s="3"/>
       <c r="BR157" s="3"/>
     </row>
-    <row r="158" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -11923,7 +11937,7 @@
       <c r="BQ158" s="3"/>
       <c r="BR158" s="3"/>
     </row>
-    <row r="159" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -11993,7 +12007,7 @@
       <c r="BQ159" s="3"/>
       <c r="BR159" s="3"/>
     </row>
-    <row r="160" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -12063,7 +12077,7 @@
       <c r="BQ160" s="3"/>
       <c r="BR160" s="3"/>
     </row>
-    <row r="161" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -12133,7 +12147,7 @@
       <c r="BQ161" s="3"/>
       <c r="BR161" s="3"/>
     </row>
-    <row r="162" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -12203,7 +12217,7 @@
       <c r="BQ162" s="3"/>
       <c r="BR162" s="3"/>
     </row>
-    <row r="163" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -12273,7 +12287,7 @@
       <c r="BQ163" s="3"/>
       <c r="BR163" s="3"/>
     </row>
-    <row r="164" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -12343,7 +12357,7 @@
       <c r="BQ164" s="3"/>
       <c r="BR164" s="3"/>
     </row>
-    <row r="165" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -12413,7 +12427,7 @@
       <c r="BQ165" s="3"/>
       <c r="BR165" s="3"/>
     </row>
-    <row r="166" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -12483,7 +12497,7 @@
       <c r="BQ166" s="3"/>
       <c r="BR166" s="3"/>
     </row>
-    <row r="167" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -12553,7 +12567,7 @@
       <c r="BQ167" s="3"/>
       <c r="BR167" s="3"/>
     </row>
-    <row r="168" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -12623,7 +12637,7 @@
       <c r="BQ168" s="3"/>
       <c r="BR168" s="3"/>
     </row>
-    <row r="169" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -12693,7 +12707,7 @@
       <c r="BQ169" s="3"/>
       <c r="BR169" s="3"/>
     </row>
-    <row r="170" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -12763,7 +12777,7 @@
       <c r="BQ170" s="3"/>
       <c r="BR170" s="3"/>
     </row>
-    <row r="171" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -12833,7 +12847,7 @@
       <c r="BQ171" s="3"/>
       <c r="BR171" s="3"/>
     </row>
-    <row r="172" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -12903,7 +12917,7 @@
       <c r="BQ172" s="3"/>
       <c r="BR172" s="3"/>
     </row>
-    <row r="173" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -12973,7 +12987,7 @@
       <c r="BQ173" s="3"/>
       <c r="BR173" s="3"/>
     </row>
-    <row r="174" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -13043,7 +13057,7 @@
       <c r="BQ174" s="3"/>
       <c r="BR174" s="3"/>
     </row>
-    <row r="175" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -13113,7 +13127,7 @@
       <c r="BQ175" s="3"/>
       <c r="BR175" s="3"/>
     </row>
-    <row r="176" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -13183,7 +13197,7 @@
       <c r="BQ176" s="3"/>
       <c r="BR176" s="3"/>
     </row>
-    <row r="177" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -13253,7 +13267,7 @@
       <c r="BQ177" s="3"/>
       <c r="BR177" s="3"/>
     </row>
-    <row r="178" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -13323,7 +13337,7 @@
       <c r="BQ178" s="3"/>
       <c r="BR178" s="3"/>
     </row>
-    <row r="179" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -13393,7 +13407,7 @@
       <c r="BQ179" s="3"/>
       <c r="BR179" s="3"/>
     </row>
-    <row r="180" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -13463,7 +13477,7 @@
       <c r="BQ180" s="3"/>
       <c r="BR180" s="3"/>
     </row>
-    <row r="181" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -13533,7 +13547,7 @@
       <c r="BQ181" s="3"/>
       <c r="BR181" s="3"/>
     </row>
-    <row r="182" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -13603,7 +13617,7 @@
       <c r="BQ182" s="3"/>
       <c r="BR182" s="3"/>
     </row>
-    <row r="183" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -13673,7 +13687,7 @@
       <c r="BQ183" s="3"/>
       <c r="BR183" s="3"/>
     </row>
-    <row r="184" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -13743,7 +13757,7 @@
       <c r="BQ184" s="3"/>
       <c r="BR184" s="3"/>
     </row>
-    <row r="185" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -13813,7 +13827,7 @@
       <c r="BQ185" s="3"/>
       <c r="BR185" s="3"/>
     </row>
-    <row r="186" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -13883,7 +13897,7 @@
       <c r="BQ186" s="3"/>
       <c r="BR186" s="3"/>
     </row>
-    <row r="187" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -13953,7 +13967,7 @@
       <c r="BQ187" s="3"/>
       <c r="BR187" s="3"/>
     </row>
-    <row r="188" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -14023,7 +14037,7 @@
       <c r="BQ188" s="3"/>
       <c r="BR188" s="3"/>
     </row>
-    <row r="189" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -14093,7 +14107,7 @@
       <c r="BQ189" s="3"/>
       <c r="BR189" s="3"/>
     </row>
-    <row r="190" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -14163,7 +14177,7 @@
       <c r="BQ190" s="3"/>
       <c r="BR190" s="3"/>
     </row>
-    <row r="191" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -14233,7 +14247,7 @@
       <c r="BQ191" s="3"/>
       <c r="BR191" s="3"/>
     </row>
-    <row r="192" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -14303,7 +14317,7 @@
       <c r="BQ192" s="3"/>
       <c r="BR192" s="3"/>
     </row>
-    <row r="193" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -14373,7 +14387,7 @@
       <c r="BQ193" s="3"/>
       <c r="BR193" s="3"/>
     </row>
-    <row r="194" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -14443,7 +14457,7 @@
       <c r="BQ194" s="3"/>
       <c r="BR194" s="3"/>
     </row>
-    <row r="195" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -14513,7 +14527,7 @@
       <c r="BQ195" s="3"/>
       <c r="BR195" s="3"/>
     </row>
-    <row r="196" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -14583,7 +14597,7 @@
       <c r="BQ196" s="3"/>
       <c r="BR196" s="3"/>
     </row>
-    <row r="197" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -14653,7 +14667,7 @@
       <c r="BQ197" s="3"/>
       <c r="BR197" s="3"/>
     </row>
-    <row r="198" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -14723,7 +14737,7 @@
       <c r="BQ198" s="3"/>
       <c r="BR198" s="3"/>
     </row>
-    <row r="199" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -14793,7 +14807,7 @@
       <c r="BQ199" s="3"/>
       <c r="BR199" s="3"/>
     </row>
-    <row r="200" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -14863,7 +14877,7 @@
       <c r="BQ200" s="3"/>
       <c r="BR200" s="3"/>
     </row>
-    <row r="201" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -14933,7 +14947,7 @@
       <c r="BQ201" s="3"/>
       <c r="BR201" s="3"/>
     </row>
-    <row r="202" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -15003,7 +15017,7 @@
       <c r="BQ202" s="3"/>
       <c r="BR202" s="3"/>
     </row>
-    <row r="203" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -15073,7 +15087,7 @@
       <c r="BQ203" s="3"/>
       <c r="BR203" s="3"/>
     </row>
-    <row r="204" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -15143,7 +15157,7 @@
       <c r="BQ204" s="3"/>
       <c r="BR204" s="3"/>
     </row>
-    <row r="205" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -15213,7 +15227,7 @@
       <c r="BQ205" s="3"/>
       <c r="BR205" s="3"/>
     </row>
-    <row r="206" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -15283,7 +15297,7 @@
       <c r="BQ206" s="3"/>
       <c r="BR206" s="3"/>
     </row>
-    <row r="207" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -15353,7 +15367,7 @@
       <c r="BQ207" s="3"/>
       <c r="BR207" s="3"/>
     </row>
-    <row r="208" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -15423,7 +15437,7 @@
       <c r="BQ208" s="3"/>
       <c r="BR208" s="3"/>
     </row>
-    <row r="209" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -15493,7 +15507,7 @@
       <c r="BQ209" s="3"/>
       <c r="BR209" s="3"/>
     </row>
-    <row r="210" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -15563,7 +15577,7 @@
       <c r="BQ210" s="3"/>
       <c r="BR210" s="3"/>
     </row>
-    <row r="211" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -15633,7 +15647,7 @@
       <c r="BQ211" s="3"/>
       <c r="BR211" s="3"/>
     </row>
-    <row r="212" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -15703,7 +15717,7 @@
       <c r="BQ212" s="3"/>
       <c r="BR212" s="3"/>
     </row>
-    <row r="213" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -15773,7 +15787,7 @@
       <c r="BQ213" s="3"/>
       <c r="BR213" s="3"/>
     </row>
-    <row r="214" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -15843,7 +15857,7 @@
       <c r="BQ214" s="3"/>
       <c r="BR214" s="3"/>
     </row>
-    <row r="215" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -15913,7 +15927,7 @@
       <c r="BQ215" s="3"/>
       <c r="BR215" s="3"/>
     </row>
-    <row r="216" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -15983,7 +15997,7 @@
       <c r="BQ216" s="3"/>
       <c r="BR216" s="3"/>
     </row>
-    <row r="217" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -16053,7 +16067,7 @@
       <c r="BQ217" s="3"/>
       <c r="BR217" s="3"/>
     </row>
-    <row r="218" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -16123,7 +16137,7 @@
       <c r="BQ218" s="3"/>
       <c r="BR218" s="3"/>
     </row>
-    <row r="219" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -16193,7 +16207,7 @@
       <c r="BQ219" s="3"/>
       <c r="BR219" s="3"/>
     </row>
-    <row r="220" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -16263,7 +16277,7 @@
       <c r="BQ220" s="3"/>
       <c r="BR220" s="3"/>
     </row>
-    <row r="221" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -16333,7 +16347,7 @@
       <c r="BQ221" s="3"/>
       <c r="BR221" s="3"/>
     </row>
-    <row r="222" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -16403,7 +16417,7 @@
       <c r="BQ222" s="3"/>
       <c r="BR222" s="3"/>
     </row>
-    <row r="223" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -16473,7 +16487,7 @@
       <c r="BQ223" s="3"/>
       <c r="BR223" s="3"/>
     </row>
-    <row r="224" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -16543,7 +16557,7 @@
       <c r="BQ224" s="3"/>
       <c r="BR224" s="3"/>
     </row>
-    <row r="225" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -16613,7 +16627,7 @@
       <c r="BQ225" s="3"/>
       <c r="BR225" s="3"/>
     </row>
-    <row r="226" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -16683,7 +16697,7 @@
       <c r="BQ226" s="3"/>
       <c r="BR226" s="3"/>
     </row>
-    <row r="227" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -16753,7 +16767,7 @@
       <c r="BQ227" s="3"/>
       <c r="BR227" s="3"/>
     </row>
-    <row r="228" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -16823,7 +16837,7 @@
       <c r="BQ228" s="3"/>
       <c r="BR228" s="3"/>
     </row>
-    <row r="229" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -16893,7 +16907,7 @@
       <c r="BQ229" s="3"/>
       <c r="BR229" s="3"/>
     </row>
-    <row r="230" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -16963,7 +16977,7 @@
       <c r="BQ230" s="3"/>
       <c r="BR230" s="3"/>
     </row>
-    <row r="231" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -17033,7 +17047,7 @@
       <c r="BQ231" s="3"/>
       <c r="BR231" s="3"/>
     </row>
-    <row r="232" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -17103,7 +17117,7 @@
       <c r="BQ232" s="3"/>
       <c r="BR232" s="3"/>
     </row>
-    <row r="233" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -17173,7 +17187,7 @@
       <c r="BQ233" s="3"/>
       <c r="BR233" s="3"/>
     </row>
-    <row r="234" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -17243,7 +17257,7 @@
       <c r="BQ234" s="3"/>
       <c r="BR234" s="3"/>
     </row>
-    <row r="235" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -17313,7 +17327,7 @@
       <c r="BQ235" s="3"/>
       <c r="BR235" s="3"/>
     </row>
-    <row r="236" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -17383,7 +17397,7 @@
       <c r="BQ236" s="3"/>
       <c r="BR236" s="3"/>
     </row>
-    <row r="237" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -17453,7 +17467,7 @@
       <c r="BQ237" s="3"/>
       <c r="BR237" s="3"/>
     </row>
-    <row r="238" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -17523,7 +17537,7 @@
       <c r="BQ238" s="3"/>
       <c r="BR238" s="3"/>
     </row>
-    <row r="239" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -17593,7 +17607,7 @@
       <c r="BQ239" s="3"/>
       <c r="BR239" s="3"/>
     </row>
-    <row r="240" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -17663,7 +17677,7 @@
       <c r="BQ240" s="3"/>
       <c r="BR240" s="3"/>
     </row>
-    <row r="241" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -17733,7 +17747,7 @@
       <c r="BQ241" s="3"/>
       <c r="BR241" s="3"/>
     </row>
-    <row r="242" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -17803,7 +17817,7 @@
       <c r="BQ242" s="3"/>
       <c r="BR242" s="3"/>
     </row>
-    <row r="243" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -17873,7 +17887,7 @@
       <c r="BQ243" s="3"/>
       <c r="BR243" s="3"/>
     </row>
-    <row r="244" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -17943,7 +17957,7 @@
       <c r="BQ244" s="3"/>
       <c r="BR244" s="3"/>
     </row>
-    <row r="245" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -18013,7 +18027,7 @@
       <c r="BQ245" s="3"/>
       <c r="BR245" s="3"/>
     </row>
-    <row r="246" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -18083,7 +18097,7 @@
       <c r="BQ246" s="3"/>
       <c r="BR246" s="3"/>
     </row>
-    <row r="247" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -18153,7 +18167,7 @@
       <c r="BQ247" s="3"/>
       <c r="BR247" s="3"/>
     </row>
-    <row r="248" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -18223,7 +18237,7 @@
       <c r="BQ248" s="3"/>
       <c r="BR248" s="3"/>
     </row>
-    <row r="249" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -18293,7 +18307,7 @@
       <c r="BQ249" s="3"/>
       <c r="BR249" s="3"/>
     </row>
-    <row r="250" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -18363,7 +18377,7 @@
       <c r="BQ250" s="3"/>
       <c r="BR250" s="3"/>
     </row>
-    <row r="251" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -18433,7 +18447,7 @@
       <c r="BQ251" s="3"/>
       <c r="BR251" s="3"/>
     </row>
-    <row r="252" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -18503,7 +18517,7 @@
       <c r="BQ252" s="3"/>
       <c r="BR252" s="3"/>
     </row>
-    <row r="253" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -18573,7 +18587,7 @@
       <c r="BQ253" s="3"/>
       <c r="BR253" s="3"/>
     </row>
-    <row r="254" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -18643,7 +18657,7 @@
       <c r="BQ254" s="3"/>
       <c r="BR254" s="3"/>
     </row>
-    <row r="255" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -18713,7 +18727,7 @@
       <c r="BQ255" s="3"/>
       <c r="BR255" s="3"/>
     </row>
-    <row r="256" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -18783,7 +18797,7 @@
       <c r="BQ256" s="3"/>
       <c r="BR256" s="3"/>
     </row>
-    <row r="257" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -18853,7 +18867,7 @@
       <c r="BQ257" s="3"/>
       <c r="BR257" s="3"/>
     </row>
-    <row r="258" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -18923,7 +18937,7 @@
       <c r="BQ258" s="3"/>
       <c r="BR258" s="3"/>
     </row>
-    <row r="259" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -18993,7 +19007,7 @@
       <c r="BQ259" s="3"/>
       <c r="BR259" s="3"/>
     </row>
-    <row r="260" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -19063,7 +19077,7 @@
       <c r="BQ260" s="3"/>
       <c r="BR260" s="3"/>
     </row>
-    <row r="261" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -19133,7 +19147,7 @@
       <c r="BQ261" s="3"/>
       <c r="BR261" s="3"/>
     </row>
-    <row r="262" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -19203,7 +19217,7 @@
       <c r="BQ262" s="3"/>
       <c r="BR262" s="3"/>
     </row>
-    <row r="263" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -19273,7 +19287,7 @@
       <c r="BQ263" s="3"/>
       <c r="BR263" s="3"/>
     </row>
-    <row r="264" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -19343,7 +19357,7 @@
       <c r="BQ264" s="3"/>
       <c r="BR264" s="3"/>
     </row>
-    <row r="265" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -19413,7 +19427,7 @@
       <c r="BQ265" s="3"/>
       <c r="BR265" s="3"/>
     </row>
-    <row r="266" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -19483,7 +19497,7 @@
       <c r="BQ266" s="3"/>
       <c r="BR266" s="3"/>
     </row>
-    <row r="267" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -19553,7 +19567,7 @@
       <c r="BQ267" s="3"/>
       <c r="BR267" s="3"/>
     </row>
-    <row r="268" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -19623,7 +19637,7 @@
       <c r="BQ268" s="3"/>
       <c r="BR268" s="3"/>
     </row>
-    <row r="269" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -19693,7 +19707,7 @@
       <c r="BQ269" s="3"/>
       <c r="BR269" s="3"/>
     </row>
-    <row r="270" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -19763,7 +19777,7 @@
       <c r="BQ270" s="3"/>
       <c r="BR270" s="3"/>
     </row>
-    <row r="271" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -19833,7 +19847,7 @@
       <c r="BQ271" s="3"/>
       <c r="BR271" s="3"/>
     </row>
-    <row r="272" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -19903,7 +19917,7 @@
       <c r="BQ272" s="3"/>
       <c r="BR272" s="3"/>
     </row>
-    <row r="273" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -19973,7 +19987,7 @@
       <c r="BQ273" s="3"/>
       <c r="BR273" s="3"/>
     </row>
-    <row r="274" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -20043,7 +20057,7 @@
       <c r="BQ274" s="3"/>
       <c r="BR274" s="3"/>
     </row>
-    <row r="275" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -20113,7 +20127,7 @@
       <c r="BQ275" s="3"/>
       <c r="BR275" s="3"/>
     </row>
-    <row r="276" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -20183,7 +20197,7 @@
       <c r="BQ276" s="3"/>
       <c r="BR276" s="3"/>
     </row>
-    <row r="277" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -20253,7 +20267,7 @@
       <c r="BQ277" s="3"/>
       <c r="BR277" s="3"/>
     </row>
-    <row r="278" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -20323,7 +20337,7 @@
       <c r="BQ278" s="3"/>
       <c r="BR278" s="3"/>
     </row>
-    <row r="279" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -20393,7 +20407,7 @@
       <c r="BQ279" s="3"/>
       <c r="BR279" s="3"/>
     </row>
-    <row r="280" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -20463,7 +20477,7 @@
       <c r="BQ280" s="3"/>
       <c r="BR280" s="3"/>
     </row>
-    <row r="281" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -20533,7 +20547,7 @@
       <c r="BQ281" s="3"/>
       <c r="BR281" s="3"/>
     </row>
-    <row r="282" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -20603,7 +20617,7 @@
       <c r="BQ282" s="3"/>
       <c r="BR282" s="3"/>
     </row>
-    <row r="283" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -20673,7 +20687,7 @@
       <c r="BQ283" s="3"/>
       <c r="BR283" s="3"/>
     </row>
-    <row r="284" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -20743,7 +20757,7 @@
       <c r="BQ284" s="3"/>
       <c r="BR284" s="3"/>
     </row>
-    <row r="285" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -20813,7 +20827,7 @@
       <c r="BQ285" s="3"/>
       <c r="BR285" s="3"/>
     </row>
-    <row r="286" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -20883,7 +20897,7 @@
       <c r="BQ286" s="3"/>
       <c r="BR286" s="3"/>
     </row>
-    <row r="287" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -20953,7 +20967,7 @@
       <c r="BQ287" s="3"/>
       <c r="BR287" s="3"/>
     </row>
-    <row r="288" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -21023,7 +21037,7 @@
       <c r="BQ288" s="3"/>
       <c r="BR288" s="3"/>
     </row>
-    <row r="289" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -21093,7 +21107,7 @@
       <c r="BQ289" s="3"/>
       <c r="BR289" s="3"/>
     </row>
-    <row r="290" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -21163,7 +21177,7 @@
       <c r="BQ290" s="3"/>
       <c r="BR290" s="3"/>
     </row>
-    <row r="291" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -21233,7 +21247,7 @@
       <c r="BQ291" s="3"/>
       <c r="BR291" s="3"/>
     </row>
-    <row r="292" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -21303,7 +21317,7 @@
       <c r="BQ292" s="3"/>
       <c r="BR292" s="3"/>
     </row>
-    <row r="293" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -21373,7 +21387,7 @@
       <c r="BQ293" s="3"/>
       <c r="BR293" s="3"/>
     </row>
-    <row r="294" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -21443,7 +21457,7 @@
       <c r="BQ294" s="3"/>
       <c r="BR294" s="3"/>
     </row>
-    <row r="295" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -21513,7 +21527,7 @@
       <c r="BQ295" s="3"/>
       <c r="BR295" s="3"/>
     </row>
-    <row r="296" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -21583,7 +21597,7 @@
       <c r="BQ296" s="3"/>
       <c r="BR296" s="3"/>
     </row>
-    <row r="297" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -21653,7 +21667,7 @@
       <c r="BQ297" s="3"/>
       <c r="BR297" s="3"/>
     </row>
-    <row r="298" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -21723,7 +21737,7 @@
       <c r="BQ298" s="3"/>
       <c r="BR298" s="3"/>
     </row>
-    <row r="299" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -21793,7 +21807,7 @@
       <c r="BQ299" s="3"/>
       <c r="BR299" s="3"/>
     </row>
-    <row r="300" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -21863,7 +21877,7 @@
       <c r="BQ300" s="3"/>
       <c r="BR300" s="3"/>
     </row>
-    <row r="301" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -21933,7 +21947,7 @@
       <c r="BQ301" s="3"/>
       <c r="BR301" s="3"/>
     </row>
-    <row r="302" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -22003,7 +22017,7 @@
       <c r="BQ302" s="3"/>
       <c r="BR302" s="3"/>
     </row>
-    <row r="303" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -22073,7 +22087,7 @@
       <c r="BQ303" s="3"/>
       <c r="BR303" s="3"/>
     </row>
-    <row r="304" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -22143,7 +22157,7 @@
       <c r="BQ304" s="3"/>
       <c r="BR304" s="3"/>
     </row>
-    <row r="305" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -22213,7 +22227,7 @@
       <c r="BQ305" s="3"/>
       <c r="BR305" s="3"/>
     </row>
-    <row r="306" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -22283,7 +22297,7 @@
       <c r="BQ306" s="3"/>
       <c r="BR306" s="3"/>
     </row>
-    <row r="307" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -22353,7 +22367,7 @@
       <c r="BQ307" s="3"/>
       <c r="BR307" s="3"/>
     </row>
-    <row r="308" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -22423,7 +22437,7 @@
       <c r="BQ308" s="3"/>
       <c r="BR308" s="3"/>
     </row>
-    <row r="309" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -22493,7 +22507,7 @@
       <c r="BQ309" s="3"/>
       <c r="BR309" s="3"/>
     </row>
-    <row r="310" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -22563,7 +22577,7 @@
       <c r="BQ310" s="3"/>
       <c r="BR310" s="3"/>
     </row>
-    <row r="311" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -22633,7 +22647,7 @@
       <c r="BQ311" s="3"/>
       <c r="BR311" s="3"/>
     </row>
-    <row r="312" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -22703,7 +22717,7 @@
       <c r="BQ312" s="3"/>
       <c r="BR312" s="3"/>
     </row>
-    <row r="313" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -22773,7 +22787,7 @@
       <c r="BQ313" s="3"/>
       <c r="BR313" s="3"/>
     </row>
-    <row r="314" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -22843,7 +22857,7 @@
       <c r="BQ314" s="3"/>
       <c r="BR314" s="3"/>
     </row>
-    <row r="315" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -22913,7 +22927,7 @@
       <c r="BQ315" s="3"/>
       <c r="BR315" s="3"/>
     </row>
-    <row r="316" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -22983,7 +22997,7 @@
       <c r="BQ316" s="3"/>
       <c r="BR316" s="3"/>
     </row>
-    <row r="317" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -23053,7 +23067,7 @@
       <c r="BQ317" s="3"/>
       <c r="BR317" s="3"/>
     </row>
-    <row r="318" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -23123,7 +23137,7 @@
       <c r="BQ318" s="3"/>
       <c r="BR318" s="3"/>
     </row>
-    <row r="319" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -23193,7 +23207,7 @@
       <c r="BQ319" s="3"/>
       <c r="BR319" s="3"/>
     </row>
-    <row r="320" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -23263,7 +23277,7 @@
       <c r="BQ320" s="3"/>
       <c r="BR320" s="3"/>
     </row>
-    <row r="321" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -23333,7 +23347,7 @@
       <c r="BQ321" s="3"/>
       <c r="BR321" s="3"/>
     </row>
-    <row r="322" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -23403,7 +23417,7 @@
       <c r="BQ322" s="3"/>
       <c r="BR322" s="3"/>
     </row>
-    <row r="323" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -23473,7 +23487,7 @@
       <c r="BQ323" s="3"/>
       <c r="BR323" s="3"/>
     </row>
-    <row r="324" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -23543,7 +23557,7 @@
       <c r="BQ324" s="3"/>
       <c r="BR324" s="3"/>
     </row>
-    <row r="325" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -23613,7 +23627,7 @@
       <c r="BQ325" s="3"/>
       <c r="BR325" s="3"/>
     </row>
-    <row r="326" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -23683,7 +23697,7 @@
       <c r="BQ326" s="3"/>
       <c r="BR326" s="3"/>
     </row>
-    <row r="327" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -23753,7 +23767,7 @@
       <c r="BQ327" s="3"/>
       <c r="BR327" s="3"/>
     </row>
-    <row r="328" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -23823,7 +23837,7 @@
       <c r="BQ328" s="3"/>
       <c r="BR328" s="3"/>
     </row>
-    <row r="329" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -23893,7 +23907,7 @@
       <c r="BQ329" s="3"/>
       <c r="BR329" s="3"/>
     </row>
-    <row r="330" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -23963,7 +23977,7 @@
       <c r="BQ330" s="3"/>
       <c r="BR330" s="3"/>
     </row>
-    <row r="331" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -24033,7 +24047,7 @@
       <c r="BQ331" s="3"/>
       <c r="BR331" s="3"/>
     </row>
-    <row r="332" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -24103,7 +24117,7 @@
       <c r="BQ332" s="3"/>
       <c r="BR332" s="3"/>
     </row>
-    <row r="333" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -24173,7 +24187,7 @@
       <c r="BQ333" s="3"/>
       <c r="BR333" s="3"/>
     </row>
-    <row r="334" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -24243,7 +24257,7 @@
       <c r="BQ334" s="3"/>
       <c r="BR334" s="3"/>
     </row>
-    <row r="335" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -24313,7 +24327,7 @@
       <c r="BQ335" s="3"/>
       <c r="BR335" s="3"/>
     </row>
-    <row r="336" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -24383,7 +24397,7 @@
       <c r="BQ336" s="3"/>
       <c r="BR336" s="3"/>
     </row>
-    <row r="337" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -24453,7 +24467,7 @@
       <c r="BQ337" s="3"/>
       <c r="BR337" s="3"/>
     </row>
-    <row r="338" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -24523,7 +24537,7 @@
       <c r="BQ338" s="3"/>
       <c r="BR338" s="3"/>
     </row>
-    <row r="339" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -24593,7 +24607,7 @@
       <c r="BQ339" s="3"/>
       <c r="BR339" s="3"/>
     </row>
-    <row r="340" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -24663,7 +24677,7 @@
       <c r="BQ340" s="3"/>
       <c r="BR340" s="3"/>
     </row>
-    <row r="341" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -24733,7 +24747,7 @@
       <c r="BQ341" s="3"/>
       <c r="BR341" s="3"/>
     </row>
-    <row r="342" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -24803,7 +24817,7 @@
       <c r="BQ342" s="3"/>
       <c r="BR342" s="3"/>
     </row>
-    <row r="343" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -24873,7 +24887,7 @@
       <c r="BQ343" s="3"/>
       <c r="BR343" s="3"/>
     </row>
-    <row r="344" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -24943,7 +24957,7 @@
       <c r="BQ344" s="3"/>
       <c r="BR344" s="3"/>
     </row>
-    <row r="345" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -25013,7 +25027,7 @@
       <c r="BQ345" s="3"/>
       <c r="BR345" s="3"/>
     </row>
-    <row r="346" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -25083,7 +25097,7 @@
       <c r="BQ346" s="3"/>
       <c r="BR346" s="3"/>
     </row>
-    <row r="347" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -25153,7 +25167,7 @@
       <c r="BQ347" s="3"/>
       <c r="BR347" s="3"/>
     </row>
-    <row r="348" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -25223,7 +25237,7 @@
       <c r="BQ348" s="3"/>
       <c r="BR348" s="3"/>
     </row>
-    <row r="349" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -25293,7 +25307,7 @@
       <c r="BQ349" s="3"/>
       <c r="BR349" s="3"/>
     </row>
-    <row r="350" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -25363,7 +25377,7 @@
       <c r="BQ350" s="3"/>
       <c r="BR350" s="3"/>
     </row>
-    <row r="351" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -25433,7 +25447,7 @@
       <c r="BQ351" s="3"/>
       <c r="BR351" s="3"/>
     </row>
-    <row r="352" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -25503,7 +25517,7 @@
       <c r="BQ352" s="3"/>
       <c r="BR352" s="3"/>
     </row>
-    <row r="353" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -25573,7 +25587,7 @@
       <c r="BQ353" s="3"/>
       <c r="BR353" s="3"/>
     </row>
-    <row r="354" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -25643,7 +25657,7 @@
       <c r="BQ354" s="3"/>
       <c r="BR354" s="3"/>
     </row>
-    <row r="355" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -25713,7 +25727,7 @@
       <c r="BQ355" s="3"/>
       <c r="BR355" s="3"/>
     </row>
-    <row r="356" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -25783,7 +25797,7 @@
       <c r="BQ356" s="3"/>
       <c r="BR356" s="3"/>
     </row>
-    <row r="357" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -25853,7 +25867,7 @@
       <c r="BQ357" s="3"/>
       <c r="BR357" s="3"/>
     </row>
-    <row r="358" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -25923,7 +25937,7 @@
       <c r="BQ358" s="3"/>
       <c r="BR358" s="3"/>
     </row>
-    <row r="359" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -25993,7 +26007,7 @@
       <c r="BQ359" s="3"/>
       <c r="BR359" s="3"/>
     </row>
-    <row r="360" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -26063,7 +26077,7 @@
       <c r="BQ360" s="3"/>
       <c r="BR360" s="3"/>
     </row>
-    <row r="361" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>

--- a/GES.xlsx
+++ b/GES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BACD56-E225-449D-A03D-CF332992F33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CD7022-E0A1-499E-AD47-7B619ED9A6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="38175" windowHeight="15240" xr2:uid="{E7264A03-BFC9-4B5E-8E86-B8873F1B89EB}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{E7264A03-BFC9-4B5E-8E86-B8873F1B89EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Guess</t>
   </si>
@@ -161,21 +161,55 @@
   <si>
     <t>https://investors.guess.com/news-releases/news-release-details/guess-co-founders-maurice-and-paul-marciano-and-ceo-carlos</t>
   </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition failed </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -212,6 +246,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,26 +271,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -581,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9F8111-8103-4A03-9BC4-D92B94D29D9C}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -606,7 +657,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>12.38</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -614,10 +665,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="3">
-        <v>51.456840999999997</v>
+        <v>52.082462999999997</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>18</v>
+      <c r="J3" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -629,7 +680,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>637.03569158000005</v>
+        <v>872.38125524999998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -640,10 +691,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="3">
-        <v>140.911</v>
+        <v>189.63499999999999</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>18</v>
+      <c r="J5" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -651,11 +702,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="3">
-        <f>42.836+238.306+340.617</f>
-        <v>621.75900000000001</v>
+        <f>27.12+258.37+338.222</f>
+        <v>623.71199999999999</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>18</v>
+      <c r="J6" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -664,7 +715,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>1117.88369158</v>
+        <v>1306.4582552500001</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -680,6 +731,11 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -692,10 +748,10 @@
   <dimension ref="A1:BR361"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -735,70 +791,90 @@
       <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="K2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11">
         <v>618.13</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11">
+        <v>562.95299999999997</v>
+      </c>
+      <c r="H3" s="11">
+        <v>703.46</v>
+      </c>
+      <c r="I3" s="11">
         <v>705.50699999999995</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11">
+        <v>622.80600000000004</v>
+      </c>
+      <c r="L3" s="11">
+        <v>746.68</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
       <c r="BF3" s="3"/>
       <c r="BG3" s="3"/>
       <c r="BH3" s="3"/>
@@ -817,65 +893,73 @@
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11">
         <v>33.04</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11">
+        <v>28.99</v>
+      </c>
+      <c r="H4" s="11">
+        <v>29.1</v>
+      </c>
+      <c r="I4" s="11">
         <v>33.011000000000003</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11">
+        <v>24.995000000000001</v>
+      </c>
+      <c r="L4" s="11">
+        <v>26.257000000000001</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="11"/>
       <c r="BF4" s="3"/>
       <c r="BG4" s="3"/>
       <c r="BH4" s="3"/>
@@ -894,85 +978,97 @@
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="12">
         <f t="shared" ref="C5:H5" si="0">+C3+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="12">
         <f t="shared" si="0"/>
         <v>651.16999999999996</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>591.94299999999998</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>732.56000000000006</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="12">
         <f>+I3+I4</f>
         <v>738.51799999999992</v>
       </c>
-      <c r="J5" s="7">
-        <f t="shared" ref="J5" si="1">+J3+J4</f>
+      <c r="J5" s="12">
+        <f t="shared" ref="J5:N5" si="1">+J3+J4</f>
         <v>0</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
-      <c r="BD5" s="3"/>
-      <c r="BE5" s="3"/>
+      <c r="K5" s="12">
+        <f t="shared" si="1"/>
+        <v>647.80100000000004</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" si="1"/>
+        <v>772.9369999999999</v>
+      </c>
+      <c r="M5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
       <c r="BF5" s="3"/>
       <c r="BG5" s="3"/>
       <c r="BH5" s="3"/>
@@ -991,65 +1087,73 @@
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11">
         <v>360</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11">
+        <v>343.84199999999998</v>
+      </c>
+      <c r="H6" s="11">
+        <v>412.61700000000002</v>
+      </c>
+      <c r="I6" s="11">
         <v>416.64100000000002</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="3"/>
-      <c r="BD6" s="3"/>
-      <c r="BE6" s="3"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11">
+        <v>389.34399999999999</v>
+      </c>
+      <c r="L6" s="11">
+        <v>444.16800000000001</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="11"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="11"/>
       <c r="BF6" s="3"/>
       <c r="BG6" s="3"/>
       <c r="BH6" s="3"/>
@@ -1068,85 +1172,97 @@
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="11">
         <f t="shared" ref="C7:H7" si="2">+C5-C6</f>
         <v>0</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="11">
         <f t="shared" si="2"/>
         <v>291.16999999999996</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>248.101</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>319.94300000000004</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="11">
         <f>+I5-I6</f>
         <v>321.8769999999999</v>
       </c>
-      <c r="J7" s="3">
-        <f t="shared" ref="J7" si="3">+J5-J6</f>
+      <c r="J7" s="11">
+        <f t="shared" ref="J7:N7" si="3">+J5-J6</f>
         <v>0</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
+      <c r="K7" s="11">
+        <f t="shared" si="3"/>
+        <v>258.45700000000005</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" si="3"/>
+        <v>328.76899999999989</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="11"/>
+      <c r="BE7" s="11"/>
       <c r="BF7" s="3"/>
       <c r="BG7" s="3"/>
       <c r="BH7" s="3"/>
@@ -1165,65 +1281,73 @@
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11">
         <v>234.12299999999999</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11">
+        <v>266.84800000000001</v>
+      </c>
+      <c r="H8" s="11">
+        <v>282.95100000000002</v>
+      </c>
+      <c r="I8" s="11">
         <v>279.38900000000001</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="3"/>
-      <c r="BE8" s="3"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11">
+        <v>286.536</v>
+      </c>
+      <c r="L8" s="11">
+        <v>308.58800000000002</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="11"/>
+      <c r="BD8" s="11"/>
+      <c r="BE8" s="11"/>
       <c r="BF8" s="3"/>
       <c r="BG8" s="3"/>
       <c r="BH8" s="3"/>
@@ -1242,65 +1366,75 @@
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11">
         <v>1.7370000000000001</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11">
+        <v>1.141</v>
+      </c>
+      <c r="H9" s="11">
+        <f>2.227-13.781</f>
+        <v>-11.554</v>
+      </c>
+      <c r="I9" s="11">
         <v>1.091</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3"/>
-      <c r="BB9" s="3"/>
-      <c r="BC9" s="3"/>
-      <c r="BD9" s="3"/>
-      <c r="BE9" s="3"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
+        <f>6.089-0.236</f>
+        <v>5.8530000000000006</v>
+      </c>
+      <c r="L9" s="11">
+        <v>2.266</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="11"/>
+      <c r="BE9" s="11"/>
       <c r="BF9" s="3"/>
       <c r="BG9" s="3"/>
       <c r="BH9" s="3"/>
@@ -1319,66 +1453,74 @@
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11">
         <v>-0.53700000000000003</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>-0.72</v>
+      </c>
+      <c r="I10" s="11">
         <f>0.718+0.161</f>
         <v>0.879</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3"/>
-      <c r="BC10" s="3"/>
-      <c r="BD10" s="3"/>
-      <c r="BE10" s="3"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11">
+        <v>0.624</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="11"/>
+      <c r="BD10" s="11"/>
+      <c r="BE10" s="11"/>
       <c r="BF10" s="3"/>
       <c r="BG10" s="3"/>
       <c r="BH10" s="3"/>
@@ -1397,85 +1539,97 @@
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="11">
         <f t="shared" ref="C11:H11" si="4">+C7-C8-C9+C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="11">
         <f t="shared" si="4"/>
         <v>54.772999999999968</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-19.888000000000012</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>47.826000000000022</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="11">
         <f>+I7-I8-I9+I10</f>
         <v>42.275999999999883</v>
       </c>
-      <c r="J11" s="3">
-        <f t="shared" ref="J11" si="5">+J7-J8-J9+J10</f>
+      <c r="J11" s="11">
+        <f t="shared" ref="J11:N11" si="5">+J7-J8-J9+J10</f>
         <v>0</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
-      <c r="AX11" s="3"/>
-      <c r="AY11" s="3"/>
-      <c r="AZ11" s="3"/>
-      <c r="BA11" s="3"/>
-      <c r="BB11" s="3"/>
-      <c r="BC11" s="3"/>
-      <c r="BD11" s="3"/>
-      <c r="BE11" s="3"/>
+      <c r="K11" s="11">
+        <f t="shared" si="5"/>
+        <v>-33.30799999999995</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="5"/>
+        <v>18.085999999999871</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="11"/>
+      <c r="BD11" s="11"/>
+      <c r="BE11" s="11"/>
       <c r="BF11" s="3"/>
       <c r="BG11" s="3"/>
       <c r="BH11" s="3"/>
@@ -1494,65 +1648,73 @@
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11">
         <v>5.923</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11">
+        <v>6.3739999999999997</v>
+      </c>
+      <c r="H12" s="11">
+        <v>7.7069999999999999</v>
+      </c>
+      <c r="I12" s="11">
         <v>8.1310000000000002</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11">
+        <v>7.8380000000000001</v>
+      </c>
+      <c r="L12" s="11">
+        <v>7.8710000000000004</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="11"/>
+      <c r="BD12" s="11"/>
+      <c r="BE12" s="11"/>
       <c r="BF12" s="3"/>
       <c r="BG12" s="3"/>
       <c r="BH12" s="3"/>
@@ -1571,65 +1733,73 @@
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11">
         <v>3.181</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11">
+        <v>3.6480000000000001</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2.9569999999999999</v>
+      </c>
+      <c r="I13" s="11">
         <v>2.613</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
-      <c r="BE13" s="3"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11">
+        <v>2.0270000000000001</v>
+      </c>
+      <c r="L13" s="11">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="11"/>
+      <c r="BE13" s="11"/>
       <c r="BF13" s="3"/>
       <c r="BG13" s="3"/>
       <c r="BH13" s="3"/>
@@ -1648,65 +1818,73 @@
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11">
         <v>0</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11">
+        <v>1.952</v>
+      </c>
+      <c r="H14" s="11">
         <v>0</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="11"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
+      <c r="AV14" s="11"/>
+      <c r="AW14" s="11"/>
+      <c r="AX14" s="11"/>
+      <c r="AY14" s="11"/>
+      <c r="AZ14" s="11"/>
+      <c r="BA14" s="11"/>
+      <c r="BB14" s="11"/>
+      <c r="BC14" s="11"/>
+      <c r="BD14" s="11"/>
+      <c r="BE14" s="11"/>
       <c r="BF14" s="3"/>
       <c r="BG14" s="3"/>
       <c r="BH14" s="3"/>
@@ -1725,65 +1903,73 @@
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11">
         <v>11.004</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11">
+        <v>-35.767000000000003</v>
+      </c>
+      <c r="H15" s="11">
+        <v>39.872999999999998</v>
+      </c>
+      <c r="I15" s="11">
         <v>45.826000000000001</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11">
+        <v>-1.3640000000000001</v>
+      </c>
+      <c r="L15" s="11">
+        <v>-2.0910000000000002</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
+      <c r="AV15" s="11"/>
+      <c r="AW15" s="11"/>
+      <c r="AX15" s="11"/>
+      <c r="AY15" s="11"/>
+      <c r="AZ15" s="11"/>
+      <c r="BA15" s="11"/>
+      <c r="BB15" s="11"/>
+      <c r="BC15" s="11"/>
+      <c r="BD15" s="11"/>
+      <c r="BE15" s="11"/>
       <c r="BF15" s="3"/>
       <c r="BG15" s="3"/>
       <c r="BH15" s="3"/>
@@ -1802,85 +1988,97 @@
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="11">
         <f t="shared" ref="C16:H16" si="6">+C11-C12+C13-C14-C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="11">
         <f t="shared" si="6"/>
         <v>41.026999999999965</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>11.200999999999993</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.2030000000000243</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="11">
         <f>+I11-I12+I13-I14-I15</f>
         <v>-9.0680000000001186</v>
       </c>
-      <c r="J16" s="3">
-        <f t="shared" ref="J16" si="7">+J11-J12+J13-J14-J15</f>
+      <c r="J16" s="11">
+        <f t="shared" ref="J16:N16" si="7">+J11-J12+J13-J14-J15</f>
         <v>0</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AW16" s="3"/>
-      <c r="AX16" s="3"/>
-      <c r="AY16" s="3"/>
-      <c r="AZ16" s="3"/>
-      <c r="BA16" s="3"/>
-      <c r="BB16" s="3"/>
-      <c r="BC16" s="3"/>
-      <c r="BD16" s="3"/>
-      <c r="BE16" s="3"/>
+      <c r="K16" s="11">
+        <f t="shared" si="7"/>
+        <v>-37.754999999999953</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" si="7"/>
+        <v>15.30099999999987</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="11"/>
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="11"/>
+      <c r="BB16" s="11"/>
+      <c r="BC16" s="11"/>
+      <c r="BD16" s="11"/>
+      <c r="BE16" s="11"/>
       <c r="BF16" s="3"/>
       <c r="BG16" s="3"/>
       <c r="BH16" s="3"/>
@@ -1899,65 +2097,73 @@
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11">
         <v>-18.277000000000001</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11">
+        <v>-4.7050000000000001</v>
+      </c>
+      <c r="H17" s="11">
+        <v>11.789</v>
+      </c>
+      <c r="I17" s="11">
         <v>11.686999999999999</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3"/>
-      <c r="BC17" s="3"/>
-      <c r="BD17" s="3"/>
-      <c r="BE17" s="3"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11">
+        <v>-6.516</v>
+      </c>
+      <c r="L17" s="11">
+        <v>7.0110000000000001</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="11"/>
+      <c r="AZ17" s="11"/>
+      <c r="BA17" s="11"/>
+      <c r="BB17" s="11"/>
+      <c r="BC17" s="11"/>
+      <c r="BD17" s="11"/>
+      <c r="BE17" s="11"/>
       <c r="BF17" s="3"/>
       <c r="BG17" s="3"/>
       <c r="BH17" s="3"/>
@@ -1976,85 +2182,97 @@
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="11">
         <f t="shared" ref="C18:H18" si="8">+C16-C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="11">
         <f t="shared" si="8"/>
         <v>59.303999999999967</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>15.905999999999993</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-8.5859999999999754</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="11">
         <f>+I16-I17</f>
         <v>-20.755000000000116</v>
       </c>
-      <c r="J18" s="3">
-        <f t="shared" ref="J18" si="9">+J16-J17</f>
+      <c r="J18" s="11">
+        <f t="shared" ref="J18:N18" si="9">+J16-J17</f>
         <v>0</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
-      <c r="BB18" s="3"/>
-      <c r="BC18" s="3"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
+      <c r="K18" s="11">
+        <f t="shared" si="9"/>
+        <v>-31.238999999999955</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="9"/>
+        <v>8.2899999999998712</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="11"/>
+      <c r="AT18" s="11"/>
+      <c r="AU18" s="11"/>
+      <c r="AV18" s="11"/>
+      <c r="AW18" s="11"/>
+      <c r="AX18" s="11"/>
+      <c r="AY18" s="11"/>
+      <c r="AZ18" s="11"/>
+      <c r="BA18" s="11"/>
+      <c r="BB18" s="11"/>
+      <c r="BC18" s="11"/>
+      <c r="BD18" s="11"/>
+      <c r="BE18" s="11"/>
       <c r="BF18" s="3"/>
       <c r="BG18" s="3"/>
       <c r="BH18" s="3"/>
@@ -2073,65 +2291,73 @@
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11">
         <v>3.6030000000000002</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11">
+        <v>2.8839999999999999</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="I19" s="11">
         <v>2.64</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="3"/>
-      <c r="BC19" s="3"/>
-      <c r="BD19" s="3"/>
-      <c r="BE19" s="3"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="L19" s="11">
+        <v>2.048</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="11"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="11"/>
+      <c r="AY19" s="11"/>
+      <c r="AZ19" s="11"/>
+      <c r="BA19" s="11"/>
+      <c r="BB19" s="11"/>
+      <c r="BC19" s="11"/>
+      <c r="BD19" s="11"/>
+      <c r="BE19" s="11"/>
       <c r="BF19" s="3"/>
       <c r="BG19" s="3"/>
       <c r="BH19" s="3"/>
@@ -2150,85 +2376,97 @@
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="11">
         <f t="shared" ref="C20:D20" si="10">+C18-C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="11">
         <f>+E18-E19</f>
         <v>55.700999999999965</v>
       </c>
-      <c r="F20" s="3">
-        <f t="shared" ref="F20:J20" si="11">+F18-F19</f>
+      <c r="F20" s="11">
+        <f t="shared" ref="F20:N20" si="11">+F18-F19</f>
         <v>0</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="11">
+        <f t="shared" si="11"/>
+        <v>13.021999999999993</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="11"/>
+        <v>-10.552999999999976</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="11"/>
+        <v>-23.395000000000117</v>
+      </c>
+      <c r="J20" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="11">
+        <f t="shared" si="11"/>
+        <v>-32.927999999999955</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="11"/>
+        <v>6.2419999999998712</v>
+      </c>
+      <c r="M20" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I20" s="3">
-        <f t="shared" si="11"/>
-        <v>-23.395000000000117</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="N20" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
-      <c r="AY20" s="3"/>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
-      <c r="BB20" s="3"/>
-      <c r="BC20" s="3"/>
-      <c r="BD20" s="3"/>
-      <c r="BE20" s="3"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="11"/>
+      <c r="AU20" s="11"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
+      <c r="AX20" s="11"/>
+      <c r="AY20" s="11"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="11"/>
+      <c r="BB20" s="11"/>
+      <c r="BC20" s="11"/>
+      <c r="BD20" s="11"/>
+      <c r="BE20" s="11"/>
       <c r="BF20" s="3"/>
       <c r="BG20" s="3"/>
       <c r="BH20" s="3"/>
@@ -2333,26 +2571,38 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="8" t="e">
+      <c r="G22" s="8">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0.24612534966356681</v>
       </c>
-      <c r="H22" s="8" t="e">
+      <c r="H22" s="8">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>-0.20125486307117202</v>
       </c>
       <c r="I22" s="8">
         <f>+I20/I23</f>
         <v>-0.46054962793811011</v>
       </c>
       <c r="J22" s="8" t="e">
-        <f t="shared" ref="J22" si="13">+J20/J23</f>
+        <f t="shared" ref="J22:N22" si="13">+J20/J23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="K22" s="8">
+        <f t="shared" si="13"/>
+        <v>-0.64093430656934214</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="13"/>
+        <v>0.12120623701430845</v>
+      </c>
+      <c r="M22" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -2420,14 +2670,22 @@
         <v>53.052</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="G23" s="3">
+        <v>52.908000000000001</v>
+      </c>
+      <c r="H23" s="3">
+        <v>52.436</v>
+      </c>
       <c r="I23" s="3">
         <v>50.798000000000002</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="K23" s="3">
+        <v>51.375</v>
+      </c>
+      <c r="L23" s="3">
+        <v>51.499000000000002</v>
+      </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -2558,18 +2816,45 @@
       <c r="BR24" s="3"/>
     </row>
     <row r="25" spans="2:70" x14ac:dyDescent="0.2">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="14" t="e">
+        <f>+G5/C5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="14" t="e">
+        <f t="shared" ref="H25:N25" si="14">+H5/D5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="14"/>
+        <v>0.13414008630618723</v>
+      </c>
+      <c r="J25" s="14" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="14"/>
+        <v>9.4363815434932219E-2</v>
+      </c>
+      <c r="L25" s="14">
+        <f t="shared" si="14"/>
+        <v>5.5117669542426251E-2</v>
+      </c>
+      <c r="M25" s="14">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="N25" s="14" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -2628,18 +2913,57 @@
       <c r="BR25" s="3"/>
     </row>
     <row r="26" spans="2:70" x14ac:dyDescent="0.2">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="B26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="13" t="e">
+        <f t="shared" ref="C26:G26" si="15">+C7/C5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="13" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="15"/>
+        <v>0.44714897799345787</v>
+      </c>
+      <c r="F26" s="13" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="13">
+        <f>+G7/G5</f>
+        <v>0.41912988243800503</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" ref="H26:N26" si="16">+H7/H5</f>
+        <v>0.4367464781041826</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="16"/>
+        <v>0.43584178043053784</v>
+      </c>
+      <c r="J26" s="13" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="13">
+        <f t="shared" si="16"/>
+        <v>0.39897592007422039</v>
+      </c>
+      <c r="L26" s="13">
+        <f t="shared" si="16"/>
+        <v>0.42535031962501463</v>
+      </c>
+      <c r="M26" s="13" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="13" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -2698,18 +3022,57 @@
       <c r="BR26" s="3"/>
     </row>
     <row r="27" spans="2:70" x14ac:dyDescent="0.2">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="B27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="13" t="e">
+        <f t="shared" ref="C27:G27" si="17">+C11/C5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="13" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="17"/>
+        <v>8.4114747301011983E-2</v>
+      </c>
+      <c r="F27" s="13" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="13">
+        <f>+G11/G5</f>
+        <v>-3.3597829520747795E-2</v>
+      </c>
+      <c r="H27" s="13">
+        <f t="shared" ref="H27:N27" si="18">+H11/H5</f>
+        <v>6.5286119908266924E-2</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" si="18"/>
+        <v>5.7244373190632983E-2</v>
+      </c>
+      <c r="J27" s="13" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="13">
+        <f t="shared" si="18"/>
+        <v>-5.1417024672700332E-2</v>
+      </c>
+      <c r="L27" s="13">
+        <f t="shared" si="18"/>
+        <v>2.3399060984271518E-2</v>
+      </c>
+      <c r="M27" s="13" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="13" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -2768,18 +3131,57 @@
       <c r="BR27" s="3"/>
     </row>
     <row r="28" spans="2:70" x14ac:dyDescent="0.2">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="B28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="13" t="e">
+        <f t="shared" ref="C28:G28" si="19">+C19/C18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="13" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="19"/>
+        <v>6.0754755159854346E-2</v>
+      </c>
+      <c r="F28" s="13" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="13">
+        <f>+G19/G18</f>
+        <v>0.18131522695838057</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" ref="H28:N28" si="20">+H19/H18</f>
+        <v>-0.22909387374796247</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" si="20"/>
+        <v>-0.12719826547819732</v>
+      </c>
+      <c r="J28" s="13" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="13">
+        <f t="shared" si="20"/>
+        <v>-5.4067031595121565E-2</v>
+      </c>
+      <c r="L28" s="13">
+        <f t="shared" si="20"/>
+        <v>0.24704463208685548</v>
+      </c>
+      <c r="M28" s="13" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="13" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
